--- a/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ADBE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E7" s="2">
         <v>43798</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43434</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43070</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42706</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42335</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41971</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41607</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41243</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40879</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12868000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11171300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9030000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7301500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5854400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4795500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4147100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4055200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4403700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4216300</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1672700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1195000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1010500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>819900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>744300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>622100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>586600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>483800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>437900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11146000</v>
+      </c>
+      <c r="E10" s="3">
         <v>9498600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7835000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6291000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5034500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4051200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3525000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3468700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3919900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3778400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,41 +840,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2188000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1930200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1537800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1224100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>976000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>862700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>844400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>826600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>742800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>738100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E14" s="3">
         <v>170900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>97800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E15" s="3">
         <v>175200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>91100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>76600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>78500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>52400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>42800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8631000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7903200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6189600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5133400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4360800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3892400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3734400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3632500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3223500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3117000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4237000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3268100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2840400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2168100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1493600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>903100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>412700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>422700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1180200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1099300</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E20" s="3">
         <v>93800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>42700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>43900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5049000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4098600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3229600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2538000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1837100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1277400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>734700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>744900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1486000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1372400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E22" s="3">
         <v>157200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>89200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>74400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>70400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>64200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>67500</v>
       </c>
       <c r="K22" s="3">
         <v>67500</v>
       </c>
       <c r="L22" s="3">
+        <v>67500</v>
+      </c>
+      <c r="M22" s="3">
         <v>67000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4176000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3204700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2793900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2137600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1435100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>873800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>361400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>356100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1118800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1035200</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1084000</v>
+      </c>
+      <c r="E24" s="3">
         <v>250300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>443700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>266400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>244200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>93000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>66200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>286000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>202400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2954400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2776800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1694000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1168800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>629600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>268400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>290000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>832800</v>
       </c>
       <c r="L26" s="3">
         <v>832800</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>832800</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2954400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2776800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1694000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1168800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>629600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>268400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>290000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>832800</v>
       </c>
       <c r="L27" s="3">
         <v>832800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>832800</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,20 +1406,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-186000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1379,12 +1439,15 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-93800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-42700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-43900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2951500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2590800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1694000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1168800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>629600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>268400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>290000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>832800</v>
       </c>
       <c r="L33" s="3">
         <v>832800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>832800</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2951500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2590800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1694000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1168800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>629600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>268400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>290000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>832800</v>
       </c>
       <c r="L35" s="3">
         <v>832800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>832800</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E38" s="2">
         <v>43798</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43434</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43070</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42706</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42335</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41971</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41607</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41243</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40879</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,107 +1734,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4478000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2650200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1642800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2306100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2022600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>876600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1117400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>834600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1425100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>989500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1514000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1526800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1586200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3513700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3750000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3111500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2622100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2339200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2113300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1922200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1598700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1315600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1218000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>833000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>672000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>591800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>599800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>617200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>634400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,75 +1875,84 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E45" s="3">
         <v>719200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>312500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>210100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>245400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>161800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>271000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>272400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>357700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>225400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8146000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6494900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4857000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7247800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5839800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4821900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4602300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4045900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4397100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3771500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1858,11 +1962,11 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
-        <v>80400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>80400</v>
@@ -1871,83 +1975,92 @@
         <v>80400</v>
       </c>
       <c r="J47" s="3">
-        <v>207200</v>
+        <v>80400</v>
       </c>
       <c r="K47" s="3">
         <v>207200</v>
       </c>
       <c r="L47" s="3">
+        <v>207200</v>
+      </c>
+      <c r="M47" s="3">
         <v>228300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1293000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1075100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>937000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1632500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>787400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>785100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>659800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>664300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>527800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12101000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12411800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12650000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6207200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5820900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5876900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5191600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5377200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5547900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4394700</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2033000</v>
+      </c>
+      <c r="E52" s="3">
         <v>562700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>186500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>143500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>139900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>159800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>126300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>90100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>93300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>68900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24284000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20762400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18768700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14535600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12697200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11726500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10785800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10380300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10040200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8991200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,49 +2270,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E57" s="3">
         <v>209500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>186300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>88000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>93300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>68400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>62100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>86700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>3149100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2191,156 +2324,171 @@
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>603200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5206000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4832300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4114900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3413900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2723600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2120200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1822800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1448900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1210800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1154900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5512000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8190900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4301100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3527500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2811600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2213600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2494400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1525600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1271800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1250800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4117000</v>
+      </c>
+      <c r="E61" s="3">
         <v>988900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4115100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1881400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1892200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1907200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>911100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1499300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1496900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1505100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1391000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1052400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>990400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>666800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>883600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>604100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>604400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>630700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>606400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>452200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11020000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10232200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9406600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6075700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5272400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4724900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4009900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3655700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3375000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3208100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19611000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14828600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11815600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9573900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8114500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7253400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6924300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6929000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7003000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6528700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13264000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10530200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9362100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8459900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7424800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7001600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6775900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6724600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6665200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5783100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E80" s="2">
         <v>43798</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43434</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43070</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42706</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42335</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41971</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41607</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41243</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40879</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5260000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2951500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2590800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1694000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1168800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>629600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>268400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>290000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>832800</v>
       </c>
       <c r="L81" s="3">
         <v>832800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>832800</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>757000</v>
+      </c>
+      <c r="E83" s="3">
         <v>736700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>346500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>326000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>331500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>339500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>313600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>321200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>299800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>270200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5727000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4421800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4029300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2912900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2199700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1469500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1287500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1151700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1499600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1543300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-394500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-266600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-178100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-203800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-184900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-148300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-188400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-271100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-210300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-455600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4685300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-442900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-960000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1488400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-490700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1177800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-834700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-757400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3327,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,106 +3668,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3488000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2946000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1183700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1090700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-507300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-559100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-550400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>8500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1007400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-663300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1294800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>134800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-240800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>282800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-590500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>435600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>239600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ADBE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E7" s="2">
         <v>44162</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43798</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43070</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42706</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42335</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41971</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41607</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41243</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40879</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15785000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12868000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11171300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9030000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7301500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5854400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4795500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4147100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4055200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4403700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4216300</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1865000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1722000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1672700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1195000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1010500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>819900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>744300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>622100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>586600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>483800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>437900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>13920000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11146000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9498600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7835000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6291000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5034500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4051200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3525000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3468700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3919900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3778400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,44 +854,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2540000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2188000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1930200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1537800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1224100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>976000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>862700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>844400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>826600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>742800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>738100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,81 +929,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E14" s="3">
         <v>186000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>170900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>97800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E15" s="3">
         <v>162000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>175200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>91100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>76600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>78500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>68600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>52400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>52300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1024,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9983000</v>
+      </c>
+      <c r="E17" s="3">
         <v>8631000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7903200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6189600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5133400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4360800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3892400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3734400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3632500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3223500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3117000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5802000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4237000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3268100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2840400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2168100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1493600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>903100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>412700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>422700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1180200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1099300</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,188 +1119,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>55000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>93800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6606000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5049000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4098600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3229600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2538000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1837100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1277400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>734700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>744900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1486000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1372400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E22" s="3">
         <v>116000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>157200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>89200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>70400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>64200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>67500</v>
       </c>
       <c r="L22" s="3">
         <v>67500</v>
       </c>
       <c r="M22" s="3">
+        <v>67500</v>
+      </c>
+      <c r="N22" s="3">
         <v>67000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5705000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4176000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3204700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2793900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2137600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1435100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>873800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>361400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>356100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1118800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1035200</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1084000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>250300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>17100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>443700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>266400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>244200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>93000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>286000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>202400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1350,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5260000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2954400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2776800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1694000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1168800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>629600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>268400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>290000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>832800</v>
       </c>
       <c r="M26" s="3">
         <v>832800</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>832800</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5260000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2954400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2776800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1694000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1168800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>629600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>268400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>290000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>832800</v>
       </c>
       <c r="M27" s="3">
         <v>832800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>832800</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,23 +1467,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-186000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1442,12 +1503,15 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1545,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,81 +1584,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-55000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-93800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-43900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5260000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2951500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2590800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1694000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1168800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>629600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>268400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>290000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>832800</v>
       </c>
       <c r="M33" s="3">
         <v>832800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>832800</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1701,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5260000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2951500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2590800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1694000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1168800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>629600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>268400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>290000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>832800</v>
       </c>
       <c r="M35" s="3">
         <v>832800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>832800</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E38" s="2">
         <v>44162</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43798</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43070</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42706</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42335</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41971</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41607</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41243</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40879</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1804,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,116 +1821,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3844000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4478000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2650200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1642800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2306100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2022600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>876600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1117400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>834600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1425100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>989500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1514000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1526800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1586200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3513700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3750000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3111500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2622100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2339200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2113300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1922200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1479000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1598700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1315600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1218000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>833000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>672000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>591800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>599800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>617200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>634400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1878,81 +1974,90 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>908000</v>
+      </c>
+      <c r="E45" s="3">
         <v>675000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>719200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>312500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>210100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>245400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>161800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>271000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>272400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>357700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>225400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8669000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8146000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6494900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4857000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7247800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5839800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4821900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4602300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4045900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4397100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3771500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1965,11 +2070,11 @@
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="3">
-        <v>80400</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>80400</v>
@@ -1978,89 +2083,98 @@
         <v>80400</v>
       </c>
       <c r="K47" s="3">
-        <v>207200</v>
+        <v>80400</v>
       </c>
       <c r="L47" s="3">
         <v>207200</v>
       </c>
       <c r="M47" s="3">
+        <v>207200</v>
+      </c>
+      <c r="N47" s="3">
         <v>228300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2004000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1293000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1075100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>937000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1632500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>787400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>785100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>659800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>664300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>527800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14488000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12101000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12411800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12650000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6207200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5820900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5876900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5191600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5377200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5547900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4394700</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2208,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2247,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1968000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2033000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>562700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>186500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>143500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>139900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>159800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>126300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>93300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>68900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2325,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27241000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24284000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20762400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18768700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14535600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12697200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11726500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10785800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10380300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10040200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8991200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2384,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,55 +2401,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E57" s="3">
         <v>306000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>209500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>186300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>88000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>93300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>68400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>86700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>3149100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -2327,168 +2461,183 @@
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>603200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6620000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5206000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4832300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4114900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3413900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2723600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2120200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1822800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1448900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1210800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1154900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6932000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5512000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8190900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4301100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3527500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2811600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2213600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2494400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1525600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1271800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1250800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4123000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4117000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>988900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4115100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1881400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1892200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1907200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>911100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1499300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1496900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1505100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1391000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1052400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>990400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>666800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>883600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>604100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>604400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>630700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>606400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>452200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2671,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2710,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2749,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12444000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11020000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10232200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9406600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6075700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5272400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4724900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4009900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3655700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3375000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3208100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2808,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2844,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2883,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2922,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2961,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23905000</v>
+      </c>
+      <c r="E72" s="3">
         <v>19611000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14828600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11815600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9573900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8114500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7253400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6924300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6929000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7003000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6528700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3039,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3078,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3117,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14797000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13264000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10530200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9362100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8459900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7424800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7001600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6775900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6724600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6665200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5783100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3195,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E80" s="2">
         <v>44162</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43798</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43070</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42706</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42335</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41971</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41607</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41243</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40879</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4822000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5260000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2951500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2590800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1694000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1168800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>629600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>268400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>290000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>832800</v>
       </c>
       <c r="M81" s="3">
         <v>832800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>832800</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3298,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E83" s="3">
         <v>757000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>736700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>346500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>326000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>331500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>339500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>313600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>321200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>299800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>270200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3373,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3412,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3451,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3490,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3529,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7230000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5727000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4421800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4029300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2912900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2199700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1469500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1287500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1151700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1499600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1543300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3588,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-348000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-419000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-394500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-266600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-178100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-203800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-184900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-148300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-188400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-271100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-210300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3663,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3702,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3537000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-414000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-455600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4685300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-442900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-960000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1488400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-490700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1177800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-834700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-757400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,8 +3761,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3563,9 +3797,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3836,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3875,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,115 +3914,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4301000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3488000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2946000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1183700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1090700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-507300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-559100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-234700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-550400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-12700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>8500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-21300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-634000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1828000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1007400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-663300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1294800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>134800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-240800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>282800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-590500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>435600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>239600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
@@ -1906,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1963000</v>
+        <v>1878000</v>
       </c>
       <c r="E43" s="3">
         <v>1479000</v>
@@ -1984,7 +1984,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>908000</v>
+        <v>993000</v>
       </c>
       <c r="E45" s="3">
         <v>675000</v>

--- a/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ADBE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>ADBE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44897</v>
+      </c>
+      <c r="E7" s="2">
         <v>44533</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44162</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43798</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43070</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42706</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42335</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41971</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41607</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41243</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40879</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17606000</v>
+      </c>
+      <c r="E8" s="3">
         <v>15785000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12868000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11171300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9030000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7301500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5854400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4795500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4147100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4055200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4403700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4216300</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1865000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1722000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1672700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1195000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1010500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>819900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>744300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>622100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>586600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>483800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>437900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>15441000</v>
+      </c>
+      <c r="E10" s="3">
         <v>13920000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11146000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9498600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7835000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6291000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5034500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4051200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3525000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3468700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3919900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3778400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,47 +867,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2987000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2540000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2188000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1930200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1537800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1224100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>976000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>862700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>844400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>826600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>742800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>738100</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,87 +948,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E14" s="3">
         <v>212000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>186000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>170900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>97800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E15" s="3">
         <v>172000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>162000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>175200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>91100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>76600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>78500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>68600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>52400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>52300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1025,86 +1050,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11508000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9983000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8631000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7903200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6189600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5133400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4360800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3892400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3734400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3632500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3223500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3117000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6098000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5802000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4237000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3268100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2840400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2168100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1493600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>903100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>412700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>422700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1180200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1099300</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,203 +1152,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>55000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>93800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>42700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>43900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6976000</v>
+      </c>
+      <c r="E21" s="3">
         <v>6606000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5049000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4098600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3229600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2538000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1837100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1277400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>734700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>744900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1486000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1372400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E22" s="3">
         <v>113000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>116000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>157200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>89200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>74400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>70400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>64200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>67500</v>
       </c>
       <c r="M22" s="3">
         <v>67500</v>
       </c>
       <c r="N22" s="3">
+        <v>67500</v>
+      </c>
+      <c r="O22" s="3">
         <v>67000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6008000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5705000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4176000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3204700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2793900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2137600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1435100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>873800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>361400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>356100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1118800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1035200</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1252000</v>
+      </c>
+      <c r="E24" s="3">
         <v>883000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1084000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>250300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>17100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>443700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>266400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>244200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>286000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>202400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1353,87 +1401,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4822000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5260000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2954400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2776800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1694000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1168800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>629600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>268400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>290000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>832800</v>
       </c>
       <c r="N26" s="3">
         <v>832800</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>832800</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4822000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5260000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2954400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2776800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1694000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1168800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>629600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>268400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>290000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>832800</v>
       </c>
       <c r="N27" s="3">
         <v>832800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>832800</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,26 +1527,29 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-186000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1506,12 +1566,15 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1548,9 +1611,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,87 +1653,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-55000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-93800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-42700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-43900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4822000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5260000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2951500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2590800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1694000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1168800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>629600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>268400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>290000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>832800</v>
       </c>
       <c r="N33" s="3">
         <v>832800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>832800</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1704,92 +1779,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4822000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5260000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2951500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2590800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1694000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1168800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>629600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>268400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>290000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>832800</v>
       </c>
       <c r="N35" s="3">
         <v>832800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>832800</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44897</v>
+      </c>
+      <c r="E38" s="2">
         <v>44533</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44162</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43798</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43070</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42706</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42335</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41971</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41607</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41243</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40879</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1805,8 +1889,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1822,125 +1907,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4236000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3844000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4478000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2650200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1642800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2306100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2022600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>876600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1117400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>834600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1425100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>989500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1860000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1954000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1514000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1526800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1586200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3513700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3750000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3111500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2622100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2339200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2113300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1922200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2065000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1878000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1479000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1598700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1315600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1218000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>833000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>672000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>591800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>599800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>617200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>634400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1977,87 +2072,96 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E45" s="3">
         <v>993000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>675000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>719200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>312500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>210100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>245400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>161800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>271000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>272400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>357700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>225400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8996000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8669000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8146000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6494900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4857000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7247800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5839800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4821900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4602300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4045900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4397100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3771500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2073,11 +2177,11 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I47" s="3">
-        <v>80400</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>80400</v>
@@ -2086,95 +2190,104 @@
         <v>80400</v>
       </c>
       <c r="L47" s="3">
-        <v>207200</v>
+        <v>80400</v>
       </c>
       <c r="M47" s="3">
         <v>207200</v>
       </c>
       <c r="N47" s="3">
+        <v>207200</v>
+      </c>
+      <c r="O47" s="3">
         <v>228300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2315000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2116000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2004000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1293000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1075100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>937000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1632500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>787400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>785100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>659800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>664300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>527800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14236000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14488000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12101000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12411800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12650000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6207200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5820900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5876900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5191600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5377200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5547900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4394700</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2211,9 +2324,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2250,48 +2366,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1968000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2033000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>562700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>186500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>143500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>139900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>159800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>126300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>93300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>68900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2328,48 +2450,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27165000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27241000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24284000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20762400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18768700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14535600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12697200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11726500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10785800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10380300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10040200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8991200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2385,8 +2513,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2402,61 +2531,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E57" s="3">
         <v>312000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>306000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>209500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>186300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>88000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>93300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>68400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>86700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>3149100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2464,180 +2597,195 @@
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>603200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7249000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6620000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5206000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4832300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4114900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3413900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2723600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2120200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1822800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1448900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1210800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1154900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8128000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6932000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5512000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8190900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4301100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3527500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2811600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2213600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2494400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1525600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1271800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1250800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3629000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4123000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4117000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>988900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4115100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1881400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1892200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1907200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>911100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1499300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1496900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1505100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1389000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1391000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1052400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>990400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>666800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>883600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>604100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>604400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>630700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>606400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>452200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2674,9 +2822,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2713,9 +2864,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2752,48 +2906,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13114000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12444000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11020000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10232200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9406600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6075700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5272400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4724900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4009900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3655700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3375000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3208100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2809,8 +2969,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2847,9 +3008,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2886,9 +3050,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2925,9 +3092,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2964,48 +3134,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28319000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23905000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>19611000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14828600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11815600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9573900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8114500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7253400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6924300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6929000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7003000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6528700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3042,9 +3218,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3260,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3120,48 +3302,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14051000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14797000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13264000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10530200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9362100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8459900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7424800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7001600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6775900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6724600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6665200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5783100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3198,92 +3386,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44897</v>
+      </c>
+      <c r="E80" s="2">
         <v>44533</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44162</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43798</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43070</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42706</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42335</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41971</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41607</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41243</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40879</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4822000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5260000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2951500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2590800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1694000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1168800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>629600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>268400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>290000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>832800</v>
       </c>
       <c r="N81" s="3">
         <v>832800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>832800</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,47 +3496,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E83" s="3">
         <v>788000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>757000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>736700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>346500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>326000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>331500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>339500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>313600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>321200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>299800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>270200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3376,9 +3577,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3415,9 +3619,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3454,9 +3661,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3493,9 +3703,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3532,48 +3745,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7838000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7230000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5727000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4421800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4029300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2912900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2199700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1469500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1287500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1151700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1499600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1543300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3589,47 +3808,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-348000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-419000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-394500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-266600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-178100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-203800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-184900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-148300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-188400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-271100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-210300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3666,9 +3889,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3705,48 +3931,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3537000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-414000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-455600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4685300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-442900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-960000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1488400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-490700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1177800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-834700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-757400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3762,8 +3994,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3800,9 +4033,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3839,9 +4075,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3878,9 +4117,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3917,124 +4159,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6825000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4301000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3488000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2946000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1183700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1090700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-507300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-559100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-234700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-550400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-12700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-21300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-634000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1828000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1007400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-663300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1294800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>134800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-240800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>282800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-590500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>435600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>239600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
